--- a/files/reference_xls/commercials.xlsx
+++ b/files/reference_xls/commercials.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10201"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10222"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/snigdhagoel/Documents/Vibrant Technik/vibrant-technik/offer-generator-test/files/reference_xls/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{532EFED8-A93B-9A42-99F6-EBEFE28307D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33828A9C-0549-3845-81ED-1D7BC57A957C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="660" windowWidth="30240" windowHeight="17660" xr2:uid="{F43B73FE-8CF1-4744-879F-C5563AC27FC7}"/>
+    <workbookView xWindow="0" yWindow="660" windowWidth="30240" windowHeight="18980" xr2:uid="{F43B73FE-8CF1-4744-879F-C5563AC27FC7}"/>
   </bookViews>
   <sheets>
     <sheet name="Commercials" sheetId="1" r:id="rId1"/>
@@ -109,7 +109,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -118,11 +118,45 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="hair">
+        <color theme="1"/>
+      </left>
+      <right style="hair">
+        <color theme="1"/>
+      </right>
+      <top style="hair">
+        <color theme="1"/>
+      </top>
+      <bottom style="hair">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color theme="1"/>
+      </left>
+      <right style="hair">
+        <color theme="1"/>
+      </right>
+      <top style="hair">
+        <color theme="1"/>
+      </top>
       <bottom style="thin">
         <color rgb="FFFD5300"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color theme="1"/>
+      </left>
+      <right style="hair">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color theme="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -131,55 +165,70 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -523,137 +572,137 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE53C54F-1BAF-CE4B-8FE6-33650AB2BF39}">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" zoomScale="164" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="30" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="35.5" style="10" customWidth="1"/>
-    <col min="2" max="2" width="8" style="10" customWidth="1"/>
-    <col min="3" max="3" width="7.1640625" style="10" customWidth="1"/>
-    <col min="4" max="4" width="11.83203125" style="10" customWidth="1"/>
-    <col min="5" max="5" width="17.83203125" style="10" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="10"/>
+    <col min="1" max="1" width="35.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8" style="1" customWidth="1"/>
+    <col min="3" max="3" width="7.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.83203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.83203125" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="30" customHeight="1">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="20" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="30" customHeight="1">
-      <c r="A2" s="11"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="4"/>
+      <c r="A2" s="15"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="19"/>
     </row>
     <row r="3" spans="1:5" ht="30" customHeight="1">
-      <c r="A3" s="11"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="4"/>
+      <c r="A3" s="2"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="6"/>
     </row>
     <row r="4" spans="1:5" ht="30" customHeight="1">
-      <c r="A4" s="11"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="4"/>
+      <c r="A4" s="2"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="6"/>
     </row>
     <row r="5" spans="1:5" ht="30" customHeight="1">
-      <c r="A5" s="11"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="4"/>
+      <c r="A5" s="2"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="6"/>
     </row>
     <row r="6" spans="1:5" ht="30" customHeight="1">
-      <c r="A6" s="11"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="4"/>
+      <c r="A6" s="2"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="6"/>
     </row>
     <row r="8" spans="1:5" ht="40" customHeight="1">
-      <c r="A8" s="12"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="9"/>
+      <c r="A8" s="7"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="10"/>
     </row>
     <row r="9" spans="1:5" ht="30" customHeight="1">
-      <c r="A9" s="12"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="9"/>
+      <c r="A9" s="7"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="10"/>
     </row>
     <row r="10" spans="1:5" ht="30" customHeight="1">
-      <c r="A10" s="13"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
+      <c r="A10" s="11"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
     </row>
     <row r="11" spans="1:5" ht="30" customHeight="1">
-      <c r="A11" s="13"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
+      <c r="A11" s="11"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
     </row>
     <row r="12" spans="1:5" ht="30" customHeight="1">
-      <c r="A12" s="13"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
+      <c r="A12" s="11"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
     </row>
     <row r="13" spans="1:5" ht="30" customHeight="1">
-      <c r="A13" s="13"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
+      <c r="A13" s="11"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
     </row>
     <row r="14" spans="1:5" ht="30" customHeight="1">
-      <c r="A14" s="13"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
+      <c r="A14" s="11"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
     </row>
     <row r="15" spans="1:5" ht="30" customHeight="1">
-      <c r="A15" s="13"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="9"/>
+      <c r="A15" s="11"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="10"/>
     </row>
     <row r="16" spans="1:5" ht="30" customHeight="1">
-      <c r="A16" s="13"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="16"/>
+      <c r="A16" s="11"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="14"/>
     </row>
     <row r="17" spans="1:4" ht="30" customHeight="1">
-      <c r="A17" s="13"/>
-      <c r="D17" s="14"/>
+      <c r="A17" s="11"/>
+      <c r="D17" s="12"/>
     </row>
     <row r="18" spans="1:4" ht="30" customHeight="1">
-      <c r="A18" s="13"/>
-      <c r="D18" s="14"/>
+      <c r="A18" s="11"/>
+      <c r="D18" s="12"/>
     </row>
     <row r="19" spans="1:4" ht="30" customHeight="1">
-      <c r="D19" s="14"/>
+      <c r="D19" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/files/reference_xls/commercials.xlsx
+++ b/files/reference_xls/commercials.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/snigdhagoel/Documents/Vibrant Technik/vibrant-technik/offer-generator-test/files/reference_xls/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33828A9C-0549-3845-81ED-1D7BC57A957C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A4A6629-B231-B640-B7F5-D8D4BA980DD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="660" windowWidth="30240" windowHeight="18980" xr2:uid="{F43B73FE-8CF1-4744-879F-C5563AC27FC7}"/>
+    <workbookView xWindow="0" yWindow="660" windowWidth="30240" windowHeight="17660" xr2:uid="{F43B73FE-8CF1-4744-879F-C5563AC27FC7}"/>
   </bookViews>
   <sheets>
     <sheet name="Commercials" sheetId="1" r:id="rId1"/>
@@ -118,29 +118,29 @@
       <diagonal/>
     </border>
     <border>
-      <left style="hair">
-        <color theme="1"/>
+      <left style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
       </left>
-      <right style="hair">
-        <color theme="1"/>
+      <right style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
       </right>
-      <top style="hair">
-        <color theme="1"/>
+      <top style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
       </top>
-      <bottom style="hair">
-        <color theme="1"/>
+      <bottom style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="hair">
-        <color theme="1"/>
+      <left style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
       </left>
-      <right style="hair">
-        <color theme="1"/>
+      <right style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
       </right>
-      <top style="hair">
-        <color theme="1"/>
+      <top style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
       </top>
       <bottom style="thin">
         <color rgb="FFFD5300"/>
@@ -148,15 +148,15 @@
       <diagonal/>
     </border>
     <border>
-      <left style="hair">
-        <color theme="1"/>
+      <left style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
       </left>
-      <right style="hair">
-        <color theme="1"/>
+      <right style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
       </right>
       <top/>
-      <bottom style="hair">
-        <color theme="1"/>
+      <bottom style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
       </bottom>
       <diagonal/>
     </border>
